--- a/artfynd/A 34121-2020.xlsx
+++ b/artfynd/A 34121-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17225498</v>
+        <v>17225485</v>
       </c>
       <c r="B2" t="n">
         <v>77668</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>447591.1549444745</v>
+        <v>448388.1765572681</v>
       </c>
       <c r="R2" t="n">
-        <v>7168741.858937191</v>
+        <v>7169577.630981886</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2014-07-18</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2014-07-18</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -814,10 +814,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17225505</v>
+        <v>17225498</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>77668</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -826,25 +826,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>1249</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>447773.513224339</v>
+        <v>447591.1549444745</v>
       </c>
       <c r="R3" t="n">
-        <v>7168958.279608547</v>
+        <v>7168741.858937191</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17225472</v>
+        <v>17225505</v>
       </c>
       <c r="B4" t="n">
-        <v>77668</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -960,25 +960,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1249</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>448011.9093301148</v>
+        <v>447773.513224339</v>
       </c>
       <c r="R4" t="n">
-        <v>7169164.298983412</v>
+        <v>7168958.279608547</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2014-07-18</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2014-07-18</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1056,11 +1056,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2 substratenheter # Picea abies</t>
+          <t>1 substratenheter # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17225504</v>
+        <v>17225472</v>
       </c>
       <c r="B5" t="n">
         <v>77668</v>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>447788.4657710555</v>
+        <v>448011.9093301148</v>
       </c>
       <c r="R5" t="n">
-        <v>7169103.392233094</v>
+        <v>7169164.298983412</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2014-07-18</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2014-07-18</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1190,11 +1190,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1 substratenheter # Picea abies</t>
+          <t>2 substratenheter # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17225471</v>
+        <v>17225504</v>
       </c>
       <c r="B6" t="n">
         <v>77668</v>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>448051.5652422914</v>
+        <v>447788.4657710555</v>
       </c>
       <c r="R6" t="n">
-        <v>7169173.481070703</v>
+        <v>7169103.392233094</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2014-07-18</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2014-07-18</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1350,7 +1350,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17225496</v>
+        <v>17225471</v>
       </c>
       <c r="B7" t="n">
         <v>77668</v>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>447578.696897022</v>
+        <v>448051.5652422914</v>
       </c>
       <c r="R7" t="n">
-        <v>7168691.897078838</v>
+        <v>7169173.481070703</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2014-07-18</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2014-07-19</t>
+          <t>2014-07-18</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1484,7 +1484,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17225497</v>
+        <v>17225496</v>
       </c>
       <c r="B8" t="n">
         <v>77668</v>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>447498.4049691075</v>
+        <v>447578.696897022</v>
       </c>
       <c r="R8" t="n">
-        <v>7168642.68021899</v>
+        <v>7168691.897078838</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17225500</v>
+        <v>17225497</v>
       </c>
       <c r="B9" t="n">
-        <v>89388</v>
+        <v>77668</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1630,25 +1630,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1108</v>
+        <v>1249</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1658,10 +1658,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>447701.8090362116</v>
+        <v>447498.4049691075</v>
       </c>
       <c r="R9" t="n">
-        <v>7168759.245618359</v>
+        <v>7168642.68021899</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17225477</v>
+        <v>17225500</v>
       </c>
       <c r="B10" t="n">
-        <v>77668</v>
+        <v>89388</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1764,25 +1764,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1249</v>
+        <v>1108</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>448216.8787179264</v>
+        <v>447701.8090362116</v>
       </c>
       <c r="R10" t="n">
-        <v>7169149.639386251</v>
+        <v>7168759.245618359</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2014-07-18</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2014-07-18</t>
+          <t>2014-07-19</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1886,7 +1886,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17225485</v>
+        <v>17225477</v>
       </c>
       <c r="B11" t="n">
         <v>77668</v>
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>448388.1765572681</v>
+        <v>448216.8787179264</v>
       </c>
       <c r="R11" t="n">
-        <v>7169577.630981886</v>
+        <v>7169149.639386251</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
